--- a/data/trans_camb/P23_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_4_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>3,59</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 7,41</t>
+          <t>-4,62; 1,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 13,03</t>
+          <t>-4,5; 2,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,51</t>
+          <t>-1,5; 8,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,13</t>
+          <t>-7,67; 0,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,86</t>
+          <t>-5,22; 3,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 6,6</t>
+          <t>-1,62; 9,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 0,24</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 1,81</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 6,93</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>-25,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>-20,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-43,41%</t>
+          <t>105,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>-58,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,7%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>66,58%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-48,9%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-18,48%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>77,24%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,76; 288,06</t>
+          <t>-99,54; 293,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,26; 521,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,84; 24,06</t>
+          <t>-53,93; 917,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,92; 71,53</t>
+          <t>-88,98; 24,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 85,94</t>
+          <t>-65,97; 121,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 188,84</t>
+          <t>-26,82; 267,08</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-79,83; 21,23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-62,95; 72,78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,63; 236,42</t>
         </is>
       </c>
     </row>
@@ -757,22 +848,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +873,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,04</t>
+          <t>-5,33; 3,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,05</t>
+          <t>-4,93; 4,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,98; -2,42</t>
+          <t>-4,45; 8,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -0,83</t>
+          <t>-8,33; 1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -1,33</t>
+          <t>-9,06; 0,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 0,16</t>
+          <t>-6,13; 5,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 1,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,73; 0,95</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,99; 4,28</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-28,84%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-72,8%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-59,97%</t>
+          <t>-43,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-60,75%</t>
+          <t>-51,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,69%</t>
+          <t>-8,06%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-35,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-36,72%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-2,3%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-85,08; 145,58</t>
+          <t>-79,91; 181,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,17; 226,94</t>
+          <t>-72,96; 206,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,4; -31,16</t>
+          <t>-75,81; 376,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,32; -5,94</t>
+          <t>-81,32; 41,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,39; -23,43</t>
+          <t>-85,6; 28,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,27; 9,75</t>
+          <t>-62,49; 128,54</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-72,3; 33,33</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-71,58; 27,55</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-53,22; 104,04</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 14,51</t>
+          <t>0,0; 31,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -1,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 2,45</t>
+          <t>0,0; 16,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 11,43</t>
+          <t>-11,67; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 6,57</t>
+          <t>-2,37; 17,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 3,74</t>
+          <t>-11,59; 0,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 14,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 8,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 5,51</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>68,28%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-61,49%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>60,82%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>179,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,01%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>314,48%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>180,31%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1042,17 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,55; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,74; 394,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,17; 239,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,2</t>
+          <t>-2,31; 3,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,62</t>
+          <t>-3,03; 2,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -1,52</t>
+          <t>-1,03; 5,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,35</t>
+          <t>-6,17; -0,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,46</t>
+          <t>-4,53; 1,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,36</t>
+          <t>-2,45; 4,79</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 0,41</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 1,18</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 4,11</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>-12,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,05%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-33,71%</t>
+          <t>-52,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-36,97%</t>
+          <t>-26,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-32,79%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-23,01%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>33,64%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 116,36</t>
+          <t>-55,3; 158,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 196,94</t>
+          <t>-67,15; 119,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,45; -31,12</t>
+          <t>-31,78; 297,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,73; 11,78</t>
+          <t>-79,6; -10,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,51; 15,52</t>
+          <t>-61,06; 34,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 38,18</t>
+          <t>-31,87; 116,35</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-61,35; 13,1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-54,66; 34,29</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 112,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
